--- a/Documentos/Tabelas Calha Parshall.xlsx
+++ b/Documentos/Tabelas Calha Parshall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\ProjetoCNPQ\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A36D54-498C-49B5-88AA-D60C4BF5FC19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB0F44A-7A97-4E72-85A8-FDB7EB25E7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>w</t>
   </si>
@@ -217,6 +217,33 @@
   </si>
   <si>
     <t>}</t>
+  </si>
+  <si>
+    <t>medA</t>
+  </si>
+  <si>
+    <t>medB</t>
+  </si>
+  <si>
+    <t>medC</t>
+  </si>
+  <si>
+    <t>medD</t>
+  </si>
+  <si>
+    <t>medG</t>
+  </si>
+  <si>
+    <t>medE</t>
+  </si>
+  <si>
+    <t>medF</t>
+  </si>
+  <si>
+    <t>medK</t>
+  </si>
+  <si>
+    <t>medN</t>
   </si>
 </sst>
 </file>
@@ -414,11 +441,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -717,10 +744,10 @@
       <c r="S1" s="5"/>
     </row>
     <row r="2" spans="3:22">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -877,8 +904,8 @@
       <c r="S5" s="2">
         <v>0.63600000000000001</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
     </row>
     <row r="6" spans="3:22">
       <c r="C6" s="17" t="s">
@@ -926,8 +953,8 @@
       <c r="S6" s="2">
         <v>0.63300000000000001</v>
       </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
     </row>
     <row r="7" spans="3:22">
       <c r="C7" s="17" t="s">
@@ -1459,6 +1486,16 @@
         <f>C20 &amp; D20</f>
         <v>w: 2440</v>
       </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20">
+        <v>244</v>
+      </c>
+      <c r="L20" t="str">
+        <f>I20 &amp; ": " &amp;J20</f>
+        <v>medA: 244</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1475,6 +1512,16 @@
         <f t="shared" ref="F21:F24" si="0">C21 &amp; D21</f>
         <v>vazaoMin: 130.7</v>
       </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21">
+        <v>239.2</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L28" si="1">I21 &amp; ": " &amp;J21</f>
+        <v>medB: 239.2</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1491,6 +1538,16 @@
         <f t="shared" si="0"/>
         <v>vazaoMax: 3950</v>
       </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22">
+        <v>274.5</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>medC: 274.5</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -1507,6 +1564,16 @@
         <f t="shared" si="0"/>
         <v>k: 3.704</v>
       </c>
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23">
+        <v>340</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>medD: 340</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1523,14 +1590,34 @@
         <f t="shared" si="0"/>
         <v>n: 0.646</v>
       </c>
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24">
+        <v>91.5</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>medE: 91.5</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
     <row r="25" spans="3:18">
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>61</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25">
+        <v>61</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>medF: 61</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -1538,18 +1625,48 @@
       <c r="R25" s="4"/>
     </row>
     <row r="26" spans="3:18">
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26">
+        <v>91.5</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>medG: 91.5</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
     <row r="27" spans="3:18">
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27">
+        <v>7.6</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>medK: 7.6</v>
+      </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
     <row r="28" spans="3:18">
+      <c r="I28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28">
+        <v>22.9</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>medN: 22.9</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
